--- a/biology/Botanique/John_Yoshio_Naka/John_Yoshio_Naka.xlsx
+++ b/biology/Botanique/John_Yoshio_Naka/John_Yoshio_Naka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 16 août 1914 à Ft. Lupton dans le Colorado, John Yoshio Naka, plus connu sous le nom de John Naka, est considéré comme une référence pour de nombreux adeptes de bonsaï à travers le monde.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'âge de 8 ans, John Naka retourne au Japon en compagnie de ses parents, arrivés aux États-Unis d'Amérique une dizaine d'années auparavant, pour s'occuper de son grand-père. Il lui fait alors découvrir l'art du bonsaï et devient son professeur personnel. De là naît sa passion pour cette discipline.
 Il revient à 21 ans aux USA, et s'envole pour Los Angeles à la fin de la Seconde Guerre mondiale avec sa femme. Il renoue alors avec sa passion du bonsaï en enseignant les rudiments de l'art du bonsaï à ses amis, avec qui il va ouvrir un club appelé The California Bonsai Society.
